--- a/data/trans_orig/P14B23-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B23-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C77CC1B-6926-42CA-95D7-5584EBEE8755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B4A317F-D6F2-499A-ACFC-8AFDA31E3F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{998F99AB-26CB-4144-A3CE-C720E9227023}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D70B94E9-BDCA-4B0C-B590-A37868E0DF92}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -84,7 +84,7 @@
     <t>87,08%</t>
   </si>
   <si>
-    <t>60,59%</t>
+    <t>56,25%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -93,19 +93,19 @@
     <t>83,99%</t>
   </si>
   <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
   </si>
   <si>
     <t>84,69%</t>
   </si>
   <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
   </si>
   <si>
     <t>12,92%</t>
@@ -114,25 +114,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>39,41%</t>
+    <t>43,75%</t>
   </si>
   <si>
     <t>16,01%</t>
   </si>
   <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
   </si>
   <si>
     <t>15,31%</t>
   </si>
   <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
   </si>
   <si>
     <t>100%</t>
@@ -144,55 +144,55 @@
     <t>57,71%</t>
   </si>
   <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
   </si>
   <si>
     <t>56,63%</t>
   </si>
   <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
   </si>
   <si>
     <t>56,97%</t>
   </si>
   <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
   </si>
   <si>
     <t>42,29%</t>
   </si>
   <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
   </si>
   <si>
     <t>43,37%</t>
   </si>
   <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
   </si>
   <si>
     <t>43,03%</t>
   </si>
   <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -201,55 +201,55 @@
     <t>46,74%</t>
   </si>
   <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
   </si>
   <si>
     <t>71,69%</t>
   </si>
   <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
   </si>
   <si>
     <t>66,08%</t>
   </si>
   <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
   </si>
   <si>
     <t>53,26%</t>
   </si>
   <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
   </si>
   <si>
     <t>28,31%</t>
   </si>
   <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
   </si>
   <si>
     <t>33,92%</t>
   </si>
   <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -258,55 +258,55 @@
     <t>68,39%</t>
   </si>
   <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
   </si>
   <si>
     <t>79,68%</t>
   </si>
   <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
   </si>
   <si>
     <t>77,52%</t>
   </si>
   <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
   </si>
   <si>
     <t>31,61%</t>
   </si>
   <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
   </si>
   <si>
     <t>20,32%</t>
   </si>
   <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
   </si>
   <si>
     <t>22,48%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -315,55 +315,55 @@
     <t>63,52%</t>
   </si>
   <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
   </si>
   <si>
     <t>64,49%</t>
   </si>
   <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
   </si>
   <si>
     <t>64,22%</t>
   </si>
   <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
   </si>
   <si>
     <t>36,48%</t>
   </si>
   <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
   </si>
   <si>
     <t>35,51%</t>
   </si>
   <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
   </si>
   <si>
     <t>35,78%</t>
   </si>
   <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -372,49 +372,55 @@
     <t>48,63%</t>
   </si>
   <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
   </si>
   <si>
     <t>64,69%</t>
   </si>
   <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
   </si>
   <si>
     <t>58,94%</t>
   </si>
   <si>
-    <t>47,12%</t>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
   </si>
   <si>
     <t>51,37%</t>
   </si>
   <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
   </si>
   <si>
     <t>35,31%</t>
   </si>
   <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
   </si>
   <si>
     <t>41,06%</t>
   </si>
   <si>
-    <t>52,88%</t>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -423,109 +429,109 @@
     <t>68,5%</t>
   </si>
   <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
   </si>
   <si>
     <t>73,38%</t>
   </si>
   <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
   </si>
   <si>
     <t>72,21%</t>
   </si>
   <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
   </si>
   <si>
     <t>31,5%</t>
   </si>
   <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
   </si>
   <si>
     <t>26,62%</t>
   </si>
   <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
   </si>
   <si>
     <t>27,79%</t>
   </si>
   <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
   </si>
   <si>
     <t>60,6%</t>
   </si>
   <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
   </si>
   <si>
     <t>71,7%</t>
   </si>
   <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
   </si>
   <si>
     <t>68,8%</t>
   </si>
   <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
   </si>
   <si>
     <t>39,4%</t>
   </si>
   <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
   </si>
   <si>
     <t>28,3%</t>
   </si>
   <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
   </si>
   <si>
     <t>31,2%</t>
   </si>
   <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -540,13 +546,13 @@
     <t>94,15%</t>
   </si>
   <si>
-    <t>82,51%</t>
+    <t>81,54%</t>
   </si>
   <si>
     <t>95,24%</t>
   </si>
   <si>
-    <t>83,12%</t>
+    <t>85,5%</t>
   </si>
   <si>
     <t>0%</t>
@@ -558,13 +564,13 @@
     <t>5,85%</t>
   </si>
   <si>
-    <t>17,49%</t>
+    <t>18,46%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>16,88%</t>
+    <t>14,5%</t>
   </si>
   <si>
     <t>86,51%</t>
@@ -588,73 +594,73 @@
     <t>69,85%</t>
   </si>
   <si>
-    <t>19,93%</t>
+    <t>8,14%</t>
   </si>
   <si>
     <t>95,05%</t>
   </si>
   <si>
-    <t>73,6%</t>
+    <t>78,49%</t>
   </si>
   <si>
     <t>90,49%</t>
   </si>
   <si>
-    <t>71,0%</t>
+    <t>72,78%</t>
   </si>
   <si>
     <t>30,15%</t>
   </si>
   <si>
-    <t>80,07%</t>
+    <t>91,86%</t>
   </si>
   <si>
     <t>4,95%</t>
   </si>
   <si>
-    <t>26,4%</t>
+    <t>21,51%</t>
   </si>
   <si>
     <t>9,51%</t>
   </si>
   <si>
-    <t>29,0%</t>
+    <t>27,22%</t>
   </si>
   <si>
     <t>83,78%</t>
   </si>
   <si>
-    <t>34,7%</t>
+    <t>33,57%</t>
   </si>
   <si>
     <t>94,78%</t>
   </si>
   <si>
-    <t>73,3%</t>
+    <t>75,9%</t>
   </si>
   <si>
     <t>92,13%</t>
   </si>
   <si>
-    <t>75,76%</t>
+    <t>72,7%</t>
   </si>
   <si>
     <t>16,22%</t>
   </si>
   <si>
-    <t>65,3%</t>
+    <t>66,43%</t>
   </si>
   <si>
     <t>5,22%</t>
   </si>
   <si>
-    <t>26,7%</t>
+    <t>24,1%</t>
   </si>
   <si>
     <t>7,87%</t>
   </si>
   <si>
-    <t>24,24%</t>
+    <t>27,3%</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -663,16 +669,16 @@
     <t>82,88%</t>
   </si>
   <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
   </si>
   <si>
     <t>88,5%</t>
   </si>
   <si>
-    <t>75,03%</t>
+    <t>74,35%</t>
   </si>
   <si>
     <t>97,02%</t>
@@ -684,10 +690,10 @@
     <t>17,12%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
   </si>
   <si>
     <t>11,5%</t>
@@ -696,7 +702,7 @@
     <t>2,98%</t>
   </si>
   <si>
-    <t>24,97%</t>
+    <t>25,65%</t>
   </si>
   <si>
     <t>69,02%</t>
@@ -708,13 +714,13 @@
     <t>96,69%</t>
   </si>
   <si>
-    <t>82,96%</t>
+    <t>83,03%</t>
   </si>
   <si>
     <t>93,43%</t>
   </si>
   <si>
-    <t>77,34%</t>
+    <t>78,35%</t>
   </si>
   <si>
     <t>30,98%</t>
@@ -726,169 +732,163 @@
     <t>3,31%</t>
   </si>
   <si>
-    <t>17,04%</t>
+    <t>16,97%</t>
   </si>
   <si>
     <t>6,57%</t>
   </si>
   <si>
-    <t>22,66%</t>
+    <t>21,65%</t>
   </si>
   <si>
     <t>89,08%</t>
   </si>
   <si>
-    <t>47,4%</t>
+    <t>47,63%</t>
   </si>
   <si>
     <t>61,28%</t>
   </si>
   <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
   </si>
   <si>
     <t>65,38%</t>
   </si>
   <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
   </si>
   <si>
     <t>10,92%</t>
   </si>
   <si>
-    <t>52,6%</t>
+    <t>52,37%</t>
   </si>
   <si>
     <t>38,72%</t>
   </si>
   <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
   </si>
   <si>
     <t>34,62%</t>
   </si>
   <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
   </si>
   <si>
     <t>82,36%</t>
   </si>
   <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
   </si>
   <si>
     <t>77,09%</t>
   </si>
   <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
   </si>
   <si>
     <t>78,31%</t>
   </si>
   <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
   </si>
   <si>
     <t>17,64%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
   </si>
   <si>
     <t>22,91%</t>
   </si>
   <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
   </si>
   <si>
     <t>21,69%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
   </si>
   <si>
     <t>89,39%</t>
   </si>
   <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
+    <t>80,49%</t>
   </si>
   <si>
     <t>84,83%</t>
   </si>
   <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
   </si>
   <si>
     <t>85,79%</t>
   </si>
   <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
   </si>
   <si>
     <t>10,61%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
+    <t>19,51%</t>
   </si>
   <si>
     <t>15,17%</t>
   </si>
   <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
   </si>
 </sst>
 </file>
@@ -1300,7 +1300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587EF8CD-7184-4DA5-A0D2-3764CF7BF2CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51FFDFF-950F-4C16-801C-8770F05EDC94}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2372,7 +2372,7 @@
         <v>117</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2387,13 +2387,13 @@
         <v>17697</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H23" s="7">
         <v>21</v>
@@ -2402,13 +2402,13 @@
         <v>21814</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M23" s="7">
         <v>37</v>
@@ -2417,13 +2417,13 @@
         <v>39511</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,7 +2479,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2491,13 +2491,13 @@
         <v>14694</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -2506,13 +2506,13 @@
         <v>50214</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M25" s="7">
         <v>60</v>
@@ -2521,13 +2521,13 @@
         <v>64908</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,13 +2542,13 @@
         <v>6758</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -2557,13 +2557,13 @@
         <v>18218</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M26" s="7">
         <v>23</v>
@@ -2572,13 +2572,13 @@
         <v>24976</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,13 +2646,13 @@
         <v>85158</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H28" s="7">
         <v>268</v>
@@ -2661,13 +2661,13 @@
         <v>284994</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M28" s="7">
         <v>345</v>
@@ -2676,13 +2676,13 @@
         <v>370152</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,13 +2697,13 @@
         <v>55373</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H29" s="7">
         <v>107</v>
@@ -2712,13 +2712,13 @@
         <v>112474</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M29" s="7">
         <v>156</v>
@@ -2727,13 +2727,13 @@
         <v>167847</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,7 +2789,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2813,7 +2813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490DF122-40B8-49EC-880E-69E1A71CD6EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60CA39FE-07E4-4AF5-B2DB-DD9BBE339C33}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2830,7 +2830,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2940,7 +2940,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>32</v>
@@ -2952,10 +2952,10 @@
         <v>31160</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>16</v>
@@ -2967,10 +2967,10 @@
         <v>38761</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>16</v>
@@ -2991,10 +2991,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3003,13 +3003,13 @@
         <v>1936</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -3018,13 +3018,13 @@
         <v>1936</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,7 +3095,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>32</v>
@@ -3110,7 +3110,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>32</v>
@@ -3125,7 +3125,7 @@
         <v>16</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>32</v>
@@ -3146,10 +3146,10 @@
         <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3161,10 +3161,10 @@
         <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3176,10 +3176,10 @@
         <v>24</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,10 +3247,10 @@
         <v>2900</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -3262,10 +3262,10 @@
         <v>17854</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -3277,10 +3277,10 @@
         <v>20754</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -3298,13 +3298,13 @@
         <v>1252</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3313,13 +3313,13 @@
         <v>929</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -3328,13 +3328,13 @@
         <v>2181</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,10 +3402,10 @@
         <v>4991</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -3417,10 +3417,10 @@
         <v>17841</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>16</v>
@@ -3432,10 +3432,10 @@
         <v>22832</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>16</v>
@@ -3453,13 +3453,13 @@
         <v>966</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3468,13 +3468,13 @@
         <v>983</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -3483,13 +3483,13 @@
         <v>1949</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,7 +3560,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>32</v>
@@ -3572,13 +3572,13 @@
         <v>18046</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -3587,13 +3587,13 @@
         <v>28706</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,10 +3611,10 @@
         <v>24</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -3623,13 +3623,13 @@
         <v>3728</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -3638,13 +3638,13 @@
         <v>3728</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,10 +3712,10 @@
         <v>2560</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -3727,10 +3727,10 @@
         <v>26883</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -3742,10 +3742,10 @@
         <v>29443</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -3763,13 +3763,13 @@
         <v>1149</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3778,13 +3778,13 @@
         <v>921</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3793,13 +3793,13 @@
         <v>2070</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,10 +3867,10 @@
         <v>7279</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>16</v>
@@ -3882,13 +3882,13 @@
         <v>28934</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -3897,13 +3897,13 @@
         <v>36214</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3918,13 @@
         <v>892</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H23" s="7">
         <v>17</v>
@@ -3933,13 +3933,13 @@
         <v>18286</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -3948,13 +3948,13 @@
         <v>19178</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,7 +4010,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4022,13 +4022,13 @@
         <v>17174</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -4037,13 +4037,13 @@
         <v>53055</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
@@ -4052,13 +4052,13 @@
         <v>70230</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4073,13 @@
         <v>3680</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -4088,13 +4088,13 @@
         <v>15768</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -4103,13 +4103,13 @@
         <v>19448</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,13 +4177,13 @@
         <v>66891</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>268</v>
+        <v>211</v>
       </c>
       <c r="H28" s="7">
         <v>215</v>
@@ -4192,13 +4192,13 @@
         <v>237916</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M28" s="7">
         <v>281</v>
@@ -4207,13 +4207,13 @@
         <v>304808</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,10 +4228,10 @@
         <v>7939</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>276</v>
+        <v>217</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>277</v>
@@ -4320,7 +4320,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B23-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B23-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B4A317F-D6F2-499A-ACFC-8AFDA31E3F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F810A12A-45E9-45DD-8C6D-153BCC9B59BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D70B94E9-BDCA-4B0C-B590-A37868E0DF92}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4C13FA9E-AC6E-4466-8F06-E5BE9DBE691B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,7 +84,7 @@
     <t>87,08%</t>
   </si>
   <si>
-    <t>56,25%</t>
+    <t>57,55%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -93,19 +93,19 @@
     <t>83,99%</t>
   </si>
   <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
   </si>
   <si>
     <t>84,69%</t>
   </si>
   <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
   </si>
   <si>
     <t>12,92%</t>
@@ -114,25 +114,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>43,75%</t>
+    <t>42,45%</t>
   </si>
   <si>
     <t>16,01%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
   </si>
   <si>
     <t>15,31%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
   </si>
   <si>
     <t>100%</t>
@@ -144,55 +144,55 @@
     <t>57,71%</t>
   </si>
   <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
   </si>
   <si>
     <t>56,63%</t>
   </si>
   <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
   </si>
   <si>
     <t>56,97%</t>
   </si>
   <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
   </si>
   <si>
     <t>42,29%</t>
   </si>
   <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
   </si>
   <si>
     <t>43,37%</t>
   </si>
   <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
   </si>
   <si>
     <t>43,03%</t>
   </si>
   <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -201,55 +201,55 @@
     <t>46,74%</t>
   </si>
   <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
   </si>
   <si>
     <t>71,69%</t>
   </si>
   <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
   </si>
   <si>
     <t>66,08%</t>
   </si>
   <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
   </si>
   <si>
     <t>53,26%</t>
   </si>
   <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
   </si>
   <si>
     <t>28,31%</t>
   </si>
   <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
   </si>
   <si>
     <t>33,92%</t>
   </si>
   <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -258,55 +258,55 @@
     <t>68,39%</t>
   </si>
   <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
   </si>
   <si>
     <t>79,68%</t>
   </si>
   <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
   </si>
   <si>
     <t>77,52%</t>
   </si>
   <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
   </si>
   <si>
     <t>31,61%</t>
   </si>
   <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
   </si>
   <si>
     <t>20,32%</t>
   </si>
   <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
   </si>
   <si>
     <t>22,48%</t>
   </si>
   <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -315,55 +315,55 @@
     <t>63,52%</t>
   </si>
   <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
   </si>
   <si>
     <t>64,49%</t>
   </si>
   <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
   </si>
   <si>
     <t>64,22%</t>
   </si>
   <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
   </si>
   <si>
     <t>36,48%</t>
   </si>
   <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
   </si>
   <si>
     <t>35,51%</t>
   </si>
   <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
   </si>
   <si>
     <t>35,78%</t>
   </si>
   <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -372,55 +372,55 @@
     <t>48,63%</t>
   </si>
   <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
   </si>
   <si>
     <t>64,69%</t>
   </si>
   <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
   </si>
   <si>
     <t>58,94%</t>
   </si>
   <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
   </si>
   <si>
     <t>51,37%</t>
   </si>
   <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
   </si>
   <si>
     <t>35,31%</t>
   </si>
   <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
   </si>
   <si>
     <t>41,06%</t>
   </si>
   <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -429,115 +429,115 @@
     <t>68,5%</t>
   </si>
   <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
   </si>
   <si>
     <t>73,38%</t>
   </si>
   <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
   </si>
   <si>
     <t>72,21%</t>
   </si>
   <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
   </si>
   <si>
     <t>31,5%</t>
   </si>
   <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
   </si>
   <si>
     <t>26,62%</t>
   </si>
   <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
   </si>
   <si>
     <t>27,79%</t>
   </si>
   <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
   </si>
   <si>
     <t>60,6%</t>
   </si>
   <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
   </si>
   <si>
     <t>71,7%</t>
   </si>
   <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
   </si>
   <si>
     <t>68,8%</t>
   </si>
   <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
   </si>
   <si>
     <t>39,4%</t>
   </si>
   <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
   </si>
   <si>
     <t>28,3%</t>
   </si>
   <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
   </si>
   <si>
     <t>31,2%</t>
   </si>
   <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya depresión o ansiedad le limita en 2015 (Tasa respuesta: 4,98%)</t>
+    <t>Población cuya depresión o ansiedad le limita en 2016 (Tasa respuesta: 4,98%)</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -546,349 +546,349 @@
     <t>94,15%</t>
   </si>
   <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
     <t>81,54%</t>
   </si>
   <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
   </si>
   <si>
     <t>18,46%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
   </si>
 </sst>
 </file>
@@ -1300,7 +1300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51FFDFF-950F-4C16-801C-8770F05EDC94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15386D4A-D9B1-4DAD-86D7-B3FED9D2608D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2813,7 +2813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60CA39FE-07E4-4AF5-B2DB-DD9BBE339C33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABFBC90-402D-42F7-837C-EE7E2B2A8ABD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2955,7 +2955,7 @@
         <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>16</v>
@@ -2967,10 +2967,10 @@
         <v>38761</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>16</v>
@@ -2991,10 +2991,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3003,13 +3003,13 @@
         <v>1936</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>175</v>
+        <v>44</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -3018,13 +3018,13 @@
         <v>1936</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,7 +3095,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>32</v>
@@ -3110,7 +3110,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>32</v>
@@ -3125,7 +3125,7 @@
         <v>16</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>32</v>
@@ -3146,10 +3146,10 @@
         <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3161,10 +3161,10 @@
         <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3176,10 +3176,10 @@
         <v>24</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,10 +3247,10 @@
         <v>2900</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -3262,10 +3262,10 @@
         <v>17854</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -3277,10 +3277,10 @@
         <v>20754</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -3298,13 +3298,13 @@
         <v>1252</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3313,13 +3313,13 @@
         <v>929</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -3328,13 +3328,13 @@
         <v>2181</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,10 +3402,10 @@
         <v>4991</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -3417,10 +3417,10 @@
         <v>17841</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>16</v>
@@ -3432,10 +3432,10 @@
         <v>22832</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>16</v>
@@ -3453,13 +3453,13 @@
         <v>966</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3468,13 +3468,13 @@
         <v>983</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -3483,13 +3483,13 @@
         <v>1949</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,7 +3560,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>32</v>
@@ -3572,13 +3572,13 @@
         <v>18046</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -3587,13 +3587,13 @@
         <v>28706</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,10 +3611,10 @@
         <v>24</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -3623,13 +3623,13 @@
         <v>3728</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -3638,13 +3638,13 @@
         <v>3728</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,10 +3712,10 @@
         <v>2560</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -3727,10 +3727,10 @@
         <v>26883</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -3742,10 +3742,10 @@
         <v>29443</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -3763,13 +3763,13 @@
         <v>1149</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3778,13 +3778,13 @@
         <v>921</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3793,13 +3793,13 @@
         <v>2070</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,10 +3867,10 @@
         <v>7279</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>16</v>
@@ -3882,13 +3882,13 @@
         <v>28934</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -3897,13 +3897,13 @@
         <v>36214</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3918,13 @@
         <v>892</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H23" s="7">
         <v>17</v>
@@ -3933,13 +3933,13 @@
         <v>18286</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -3948,13 +3948,13 @@
         <v>19178</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,13 +4022,13 @@
         <v>17174</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -4037,13 +4037,13 @@
         <v>53055</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
@@ -4052,13 +4052,13 @@
         <v>70230</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4073,13 @@
         <v>3680</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -4088,13 +4088,13 @@
         <v>15768</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -4103,13 +4103,13 @@
         <v>19448</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,13 +4177,13 @@
         <v>66891</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H28" s="7">
         <v>215</v>
@@ -4192,13 +4192,13 @@
         <v>237916</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M28" s="7">
         <v>281</v>
@@ -4207,13 +4207,13 @@
         <v>304808</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,10 +4228,10 @@
         <v>7939</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>277</v>
